--- a/static/spreadsheet/pedidos_FSM_contrato_89.xlsx
+++ b/static/spreadsheet/pedidos_FSM_contrato_89.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8016" uniqueCount="2372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8017" uniqueCount="2372">
   <si>
     <t xml:space="preserve">Pedido</t>
   </si>
@@ -7539,10 +7539,10 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I418" activeCellId="0" sqref="I418"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A800" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AB805" activeCellId="0" sqref="AB805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60884,12 +60884,22 @@
       <c r="V803" s="5"/>
       <c r="W803" s="5"/>
       <c r="X803" s="4"/>
-      <c r="Y803" s="5"/>
+      <c r="Y803" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Z803" s="5"/>
-      <c r="AA803" s="5"/>
-      <c r="AB803" s="4"/>
-      <c r="AC803" s="6"/>
-      <c r="AD803" s="6"/>
+      <c r="AA803" s="5" t="n">
+        <v>63506</v>
+      </c>
+      <c r="AB803" s="4" t="n">
+        <v>46029</v>
+      </c>
+      <c r="AC803" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD803" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="AE803" s="5"/>
     </row>
     <row r="804" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
